--- a/src/test/resources/org/bbreak/excella/reports/tag/ImageParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/ImageParamParserTest_expected.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C53B4-261B-4C02-8F95-05FCCBC608CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="-165" windowWidth="11655" windowHeight="9285" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -69,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,15 +99,21 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -109,15 +121,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,13 +278,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +330,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +364,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +399,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,76 +575,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -501,78 +663,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -589,76 +749,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -675,34 +835,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
+    <row r="1" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>6</v>
       </c>
@@ -714,34 +872,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="E1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
+    <row r="1" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>6</v>
       </c>

--- a/src/test/resources/org/bbreak/excella/reports/tag/ImageParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/ImageParamParserTest_expected.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\git\excella-reports\src\test\resources\org\bbreak\excella\reports\tag\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3578E4-084A-47B0-984F-B70F464B4A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="-165" windowWidth="11655" windowHeight="9285" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +134,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,74 +431,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -501,76 +517,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -589,74 +603,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -675,34 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
+    <row r="1" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>6</v>
       </c>
@@ -714,34 +726,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="E1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
+    <row r="1" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>6</v>
       </c>

--- a/src/test/resources/org/bbreak/excella/reports/tag/ImageParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/ImageParamParserTest_expected.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\git\excella-reports\src\test\resources\org\bbreak\excella\reports\tag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3578E4-084A-47B0-984F-B70F464B4A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C53B4-261B-4C02-8F95-05FCCBC608CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -99,15 +99,21 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,15 +121,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,68 +583,70 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="8"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="8"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -530,31 +676,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="10"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
@@ -562,31 +708,31 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="10"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -616,31 +762,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="10"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
@@ -648,31 +794,31 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="10"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
